--- a/schedule/IMG-20230212-WA0001.xlsx
+++ b/schedule/IMG-20230212-WA0001.xlsx
@@ -498,11 +498,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -581,7 +577,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ISAAC S SANCHEZ</t>
+          <t>ISAAC SANCHEZ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,22 +653,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>Sunday_ February 19_ 2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>SACKLYN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>4_00 pm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>10_00 pm</t>
         </is>
       </c>
     </row>
@@ -687,11 +683,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -714,11 +706,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>ERROR</t>
